--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105822</v>
+        <v>105825</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186626159</v>
+        <v>186635544</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4276,13 +4276,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28518</v>
+        <v>28519</v>
       </c>
       <c r="D76" t="n">
         <v>5076</v>
       </c>
       <c r="E76" t="n">
-        <v>158498679</v>
+        <v>158500134</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>84958</v>
+        <v>84959</v>
       </c>
       <c r="D105" t="n">
         <v>16087</v>
       </c>
       <c r="E105" t="n">
-        <v>401635674</v>
+        <v>401645674</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>14633</v>
+        <v>14634</v>
       </c>
       <c r="D121" t="n">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="E121" t="n">
-        <v>167108722</v>
+        <v>167168716</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -12793,13 +12793,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>10445</v>
+        <v>10446</v>
       </c>
       <c r="D243" t="n">
         <v>2230</v>
       </c>
       <c r="E243" t="n">
-        <v>48577712</v>
+        <v>48587712</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>25390</v>
+        <v>25391</v>
       </c>
       <c r="D382" t="n">
         <v>5083</v>
       </c>
       <c r="E382" t="n">
-        <v>129164110</v>
+        <v>129169663</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>16791</v>
+        <v>16792</v>
       </c>
       <c r="D384" t="n">
         <v>3259</v>
       </c>
       <c r="E384" t="n">
-        <v>80747329</v>
+        <v>80750829</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71261</v>
+        <v>71264</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110287231</v>
+        <v>110294557</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18845</v>
+        <v>18848</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75099352</v>
+        <v>75117834</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16921</v>
+        <v>16923</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50436644</v>
+        <v>50452265</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73745</v>
+        <v>73746</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386330290</v>
+        <v>386348384</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416619</v>
+        <v>416626</v>
       </c>
       <c r="D477" t="n">
-        <v>70497</v>
+        <v>70498</v>
       </c>
       <c r="E477" t="n">
-        <v>724734682</v>
+        <v>724749754</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24778,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D478" t="n">
         <v>23</v>
       </c>
       <c r="E478" t="n">
-        <v>664607</v>
+        <v>665363</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291845</v>
+        <v>291855</v>
       </c>
       <c r="D484" t="n">
         <v>42564</v>
       </c>
       <c r="E484" t="n">
-        <v>1767518345</v>
+        <v>1767581398</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230475</v>
+        <v>230488</v>
       </c>
       <c r="D487" t="n">
         <v>33846</v>
       </c>
       <c r="E487" t="n">
-        <v>1814465772</v>
+        <v>1815156171</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12242</v>
+        <v>12245</v>
       </c>
       <c r="D491" t="n">
         <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>75403155</v>
+        <v>75461668</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71163</v>
+        <v>71164</v>
       </c>
       <c r="D511" t="n">
         <v>10922</v>
       </c>
       <c r="E511" t="n">
-        <v>286509687</v>
+        <v>286576209</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142803</v>
+        <v>142804</v>
       </c>
       <c r="D514" t="n">
         <v>23612</v>
       </c>
       <c r="E514" t="n">
-        <v>244567071</v>
+        <v>244568983</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76637</v>
+        <v>76639</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114129393</v>
+        <v>114131597</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25065</v>
+        <v>25068</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92331999</v>
+        <v>92362703</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39920</v>
+        <v>39921</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60358891</v>
+        <v>60359605</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18430</v>
+        <v>18438</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72554723</v>
+        <v>72659539</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12394</v>
+        <v>12397</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40027556</v>
+        <v>40042868</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -28909,13 +28909,13 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D559" t="n">
         <v>132</v>
       </c>
       <c r="E559" t="n">
-        <v>1762560</v>
+        <v>1762994</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -28960,13 +28960,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="D560" t="n">
         <v>5415</v>
       </c>
       <c r="E560" t="n">
-        <v>101311481</v>
+        <v>101312981</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -35692,13 +35692,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>24461</v>
+        <v>24462</v>
       </c>
       <c r="D692" t="n">
         <v>5606</v>
       </c>
       <c r="E692" t="n">
-        <v>41128650</v>
+        <v>41133626</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>14926</v>
+        <v>14927</v>
       </c>
       <c r="D819" t="n">
         <v>2491</v>
       </c>
       <c r="E819" t="n">
-        <v>82016836</v>
+        <v>82037653</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
